--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15150" windowHeight="10080"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>座位表</t>
   </si>
@@ -39,151 +39,28 @@
     <t>第一组</t>
   </si>
   <si>
-    <t>Man1</t>
-  </si>
-  <si>
     <t>第一排</t>
   </si>
   <si>
     <t>$$$</t>
   </si>
   <si>
-    <t>Man2</t>
-  </si>
-  <si>
     <t>第二排</t>
   </si>
   <si>
-    <t>Man3</t>
-  </si>
-  <si>
     <t>第三排</t>
   </si>
   <si>
-    <t>Man4</t>
-  </si>
-  <si>
     <t>第四排</t>
   </si>
   <si>
-    <t>Man5</t>
-  </si>
-  <si>
     <t>第五排</t>
   </si>
   <si>
-    <t>Man6</t>
-  </si>
-  <si>
     <t>第六排</t>
   </si>
   <si>
-    <t>Man7</t>
-  </si>
-  <si>
     <t>第七排</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Man8</t>
-  </si>
-  <si>
-    <t>Man9</t>
-  </si>
-  <si>
-    <t>Man10</t>
-  </si>
-  <si>
-    <t>Man11</t>
-  </si>
-  <si>
-    <t>Man12</t>
-  </si>
-  <si>
-    <t>Man13</t>
-  </si>
-  <si>
-    <t>Man14</t>
-  </si>
-  <si>
-    <t>Man15</t>
-  </si>
-  <si>
-    <t>Man16</t>
-  </si>
-  <si>
-    <t>Man17</t>
-  </si>
-  <si>
-    <t>Man18</t>
-  </si>
-  <si>
-    <t>Man19</t>
-  </si>
-  <si>
-    <t>Man20</t>
-  </si>
-  <si>
-    <t>Man21</t>
-  </si>
-  <si>
-    <t>Man22</t>
-  </si>
-  <si>
-    <t>Man23</t>
-  </si>
-  <si>
-    <t>Man24</t>
-  </si>
-  <si>
-    <t>Man25</t>
-  </si>
-  <si>
-    <t>Man26</t>
-  </si>
-  <si>
-    <t>Man27</t>
-  </si>
-  <si>
-    <t>Man28</t>
-  </si>
-  <si>
-    <t>Man29</t>
-  </si>
-  <si>
-    <t>Man30</t>
-  </si>
-  <si>
-    <t>Man31</t>
-  </si>
-  <si>
-    <t>Man32</t>
-  </si>
-  <si>
-    <t>Man33</t>
-  </si>
-  <si>
-    <t>Man34</t>
-  </si>
-  <si>
-    <t>Man35</t>
-  </si>
-  <si>
-    <t>Man36</t>
-  </si>
-  <si>
-    <t>Man37</t>
-  </si>
-  <si>
-    <t>Man38</t>
-  </si>
-  <si>
-    <t>Man39</t>
-  </si>
-  <si>
-    <t>Man40</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4545454545455" defaultRowHeight="37" customHeight="1"/>
@@ -1133,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:14">
+    <row r="2" customHeight="1" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1152,350 +1029,160 @@
       <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:12">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="8" customHeight="1" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="14:14">
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="14:14">
-      <c r="N11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="14:14">
-      <c r="N12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="14:14">
-      <c r="N13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="14:14">
-      <c r="N14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="14:14">
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="14:14">
-      <c r="N16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="14:14">
-      <c r="N17" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="14:14">
-      <c r="N18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="14:14">
-      <c r="N19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="14:14">
-      <c r="N20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="14:14">
-      <c r="N21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="14:14">
-      <c r="N22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="14:14">
-      <c r="N23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="14:14">
-      <c r="N24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="14:14">
-      <c r="N25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="14:14">
-      <c r="N26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="14:14">
-      <c r="N27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="14:14">
-      <c r="N28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="14:14">
-      <c r="N29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="14:14">
-      <c r="N30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="14:14">
-      <c r="N31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="14:14">
-      <c r="N32" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="14:14">
-      <c r="N33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="14:14">
-      <c r="N34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="14:14">
-      <c r="N35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="14:14">
-      <c r="N36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="14:14">
-      <c r="N37" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="14:14">
-      <c r="N38" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="14:14">
-      <c r="N39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="14:14">
-      <c r="N40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="14:14">
-      <c r="N41" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4545454545455" defaultRowHeight="37" customHeight="1"/>
@@ -1168,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,10 +1178,10 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
